--- a/inst/extdata/Weekday_ridership.xlsx
+++ b/inst/extdata/Weekday_ridership.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrenkalter/Desktop/wrta/wrta/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7BD362C-854B-F140-A8E4-09AF1DBEA5DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2858D9B2-3398-6142-8F18-BF1EC297F679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="11060" windowHeight="15560" xr2:uid="{7DABBA5B-21DC-4C18-8F23-7CBED6DDBA33}"/>
   </bookViews>
